--- a/Lab 8 og 11 - lysets hastighed/grønt lys.xlsx
+++ b/Lab 8 og 11 - lysets hastighed/grønt lys.xlsx
@@ -1,16 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4cf22aa3470f28/Documents/GitHub/MekRelLab/Lab 8 og 11 - lysets hastighed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_147BCFF9086C14FBA857E76B64E00A0E1427B6A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A0E370-1B92-4C07-AC1A-1A393F5F2FA5}"/>
+  <bookViews>
+    <workbookView xWindow="3290" yWindow="2380" windowWidth="14400" windowHeight="8900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="d=0,895m" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="d=1,57" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="d=2,085" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="d=2,81" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="d=2,385" sheetId="5" r:id="rId8"/>
+    <sheet name="d=0,895m" sheetId="1" r:id="rId1"/>
+    <sheet name="d=1,57" sheetId="2" r:id="rId2"/>
+    <sheet name="d=2,085" sheetId="3" r:id="rId3"/>
+    <sheet name="d=2,81" sheetId="4" r:id="rId4"/>
+    <sheet name="d=2,385" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,26 +48,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
     </font>
@@ -55,7 +78,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -65,53 +88,41 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -301,20 +312,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -322,77 +338,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>3.875</v>
       </c>
-      <c r="B2" s="3">
-        <f>0.895*2</f>
-        <v>1.79</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="B2" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>4.415</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>4.045</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>4.0449999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
-        <v>4.039</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4.0389999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>4.009</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4.0090000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>4.99</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>4.187</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4.1870000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>4.554</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>4.5540000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>4.929</v>
+        <v>4.9290000000000003</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,77 +418,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>7.574</v>
-      </c>
-      <c r="B2" s="3">
-        <f>1.57*2</f>
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>7.542</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>7.5419999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>7.459</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>7.4589999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
-        <v>7.453</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>7.4530000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>7.341</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>7.3410000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>7.694</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2">
-        <v>7.479</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7.4790000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>7.439</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7.4390000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>7.305</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7.3049999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>7.96</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,76 +498,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>10.57</v>
       </c>
-      <c r="B2" s="3">
-        <f>2.085*2</f>
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="2">
+        <v>2.085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>10.33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>10.32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2">
-        <v>9.802</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>9.8019999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>10.45</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>9.99</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>10.68</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>10.48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>10.58</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,76 +577,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>15.77</v>
       </c>
-      <c r="B2" s="3">
-        <f>2.81*2</f>
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="2">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>14.13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>16.05</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>15.67</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>15.17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>14.66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>15.99</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>16.39</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>14.88</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>15.25</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,61 +656,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>12.31</v>
       </c>
-      <c r="B2" s="3">
-        <f>2.385*2</f>
-        <v>4.77</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="2">
+        <v>2.3849999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>12.07</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>11.57</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>11.81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>11.92</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>11.56</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>11.95</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>11.59</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>11.7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>12.16</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>